--- a/Notes/构式/收集构式词项.xlsx
+++ b/Notes/构式/收集构式词项.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ResearchFile/EntelechySystem_theory/Notes/概念/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ResearchFile/EntelechySystem_theory/Notes/构式/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3486ECBA-7338-C54A-9E85-15DC767C6FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0648461-A5F1-AD4E-94C3-A9A52EDD123B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="3900" windowWidth="25600" windowHeight="21000" xr2:uid="{D9C96C3A-94AA-4446-BB0C-47998CD6AA09}"/>
+    <workbookView xWindow="3680" yWindow="7100" windowWidth="25600" windowHeight="21000" xr2:uid="{D9C96C3A-94AA-4446-BB0C-47998CD6AA09}"/>
   </bookViews>
   <sheets>
     <sheet name="构式词项" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>编号</t>
   </si>
@@ -106,9 +106,6 @@
     <t>词性</t>
   </si>
   <si>
-    <t>连词</t>
-  </si>
-  <si>
     <t>……以……为……</t>
   </si>
   <si>
@@ -122,6 +119,36 @@
   </si>
   <si>
     <t>我 有 一个苹果。</t>
+  </si>
+  <si>
+    <t>计算机语言</t>
+  </si>
+  <si>
+    <t>字典键值对</t>
+  </si>
+  <si>
+    <t>系动词</t>
+  </si>
+  <si>
+    <t>数学语言</t>
+  </si>
+  <si>
+    <t>赋值</t>
+  </si>
+  <si>
+    <t>等于</t>
+  </si>
+  <si>
+    <t>属于</t>
+  </si>
+  <si>
+    <t>2 是 2。</t>
+  </si>
+  <si>
+    <t>关系运算符等号</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
 </sst>
 </file>
@@ -480,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69B504F-298F-954C-926A-DBB7FC3CA782}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,10 +519,13 @@
     <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="30.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="54.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,109 +544,147 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Notes/构式/收集构式词项.xlsx
+++ b/Notes/构式/收集构式词项.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ResearchFile/EntelechySystem_theory/Notes/构式/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0648461-A5F1-AD4E-94C3-A9A52EDD123B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754CBF9B-AB3C-2842-A29F-326AC53D246D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="7100" windowWidth="25600" windowHeight="21000" xr2:uid="{D9C96C3A-94AA-4446-BB0C-47998CD6AA09}"/>
+    <workbookView xWindow="24600" yWindow="5000" windowWidth="25600" windowHeight="21000" xr2:uid="{D9C96C3A-94AA-4446-BB0C-47998CD6AA09}"/>
   </bookViews>
   <sheets>
     <sheet name="构式词项" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>编号</t>
   </si>
@@ -70,9 +70,6 @@
     <t>……是……之来源</t>
   </si>
   <si>
-    <t>做……从而……</t>
-  </si>
-  <si>
     <t>通过……做……</t>
   </si>
   <si>
@@ -149,6 +146,18 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>……做……</t>
+  </si>
+  <si>
+    <t>做……从而/导致……</t>
+  </si>
+  <si>
+    <t>我 打 他 导致 他 住院 并且 我 进局。</t>
+  </si>
+  <si>
+    <t>是否是基本结构</t>
   </si>
 </sst>
 </file>
@@ -507,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69B504F-298F-954C-926A-DBB7FC3CA782}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,19 +527,20 @@
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1"/>
-    <col min="9" max="9" width="54.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -545,147 +555,158 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
